--- a/frontend/vbal.xlsx
+++ b/frontend/vbal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ProjVb\frontend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ProjVerb\frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C524959-7E2A-4366-AE72-2684332D6905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E6CF21-DC83-455A-A5F6-2053B77651A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0E7A44A2-6AA7-4951-8310-C2003754AB33}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>abbeißen</t>
   </si>
@@ -109,9 +109,6 @@
     <t>transmettre, restituer</t>
   </si>
   <si>
-    <t>se déhabituer</t>
-  </si>
-  <si>
     <t>délimiter</t>
   </si>
   <si>
@@ -134,13 +131,19 @@
   </si>
   <si>
     <t>Verbe Francais 4</t>
+  </si>
+  <si>
+    <t>se déshabituer</t>
+  </si>
+  <si>
+    <t>se résigner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +152,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -175,8 +187,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -494,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4167B49E-280D-4F97-A16F-747FF3B53422}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,19 +522,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -574,6 +587,9 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -612,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -620,7 +636,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -628,7 +644,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -636,7 +652,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/vbal.xlsx
+++ b/frontend/vbal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ProjVerb\frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E6CF21-DC83-455A-A5F6-2053B77651A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6BAB4B-25A3-4C81-BF70-3483A2DFAA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0E7A44A2-6AA7-4951-8310-C2003754AB33}"/>
   </bookViews>
@@ -32,91 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>abbeißen</t>
-  </si>
-  <si>
-    <t>abbiegen</t>
-  </si>
-  <si>
-    <t>couper avec les dents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tourner </t>
-  </si>
-  <si>
-    <t>obliquer</t>
-  </si>
-  <si>
-    <t>abbringen</t>
-  </si>
-  <si>
-    <t>abfahren</t>
-  </si>
-  <si>
-    <t>abfärben</t>
-  </si>
-  <si>
-    <t>abfinden</t>
-  </si>
-  <si>
-    <t>abfragen</t>
-  </si>
-  <si>
-    <t>abführen</t>
-  </si>
-  <si>
-    <t>abfüllen</t>
-  </si>
-  <si>
-    <t>abgeben</t>
-  </si>
-  <si>
-    <t>abgewöhnen</t>
-  </si>
-  <si>
-    <t>abgrenzen</t>
-  </si>
-  <si>
-    <t>abhaken</t>
-  </si>
-  <si>
-    <t>abhalten</t>
-  </si>
-  <si>
-    <t>décourager</t>
-  </si>
-  <si>
-    <t>se mettre en route</t>
-  </si>
-  <si>
-    <t>faire se déteindre</t>
-  </si>
-  <si>
-    <t>indemniser</t>
-  </si>
-  <si>
-    <t>extraire qqch (inf.)</t>
-  </si>
-  <si>
-    <t>évacuer, aller à la selle</t>
-  </si>
-  <si>
-    <t>mettre en bouteille</t>
-  </si>
-  <si>
-    <t>transmettre, restituer</t>
-  </si>
-  <si>
-    <t>délimiter</t>
-  </si>
-  <si>
-    <t>cocher</t>
-  </si>
-  <si>
-    <t>tenir</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="288">
   <si>
     <t>Verbe Allemand</t>
   </si>
@@ -133,10 +49,853 @@
     <t>Verbe Francais 4</t>
   </si>
   <si>
-    <t>se déshabituer</t>
-  </si>
-  <si>
-    <t>se résigner</t>
+    <t>passer</t>
+  </si>
+  <si>
+    <t>consommer</t>
+  </si>
+  <si>
+    <t>ralentir</t>
+  </si>
+  <si>
+    <t>partir</t>
+  </si>
+  <si>
+    <t>blesser</t>
+  </si>
+  <si>
+    <t>reproduire</t>
+  </si>
+  <si>
+    <t>prescrire</t>
+  </si>
+  <si>
+    <t>se tordre</t>
+  </si>
+  <si>
+    <t>envoyer</t>
+  </si>
+  <si>
+    <t>flouter</t>
+  </si>
+  <si>
+    <t>renoncer</t>
+  </si>
+  <si>
+    <t>verüben</t>
+  </si>
+  <si>
+    <t>commettre</t>
+  </si>
+  <si>
+    <t>perpétrer</t>
+  </si>
+  <si>
+    <t>commettre des actes</t>
+  </si>
+  <si>
+    <t>commettre des infractions</t>
+  </si>
+  <si>
+    <t>verunglücken</t>
+  </si>
+  <si>
+    <t>être victime d'un accident</t>
+  </si>
+  <si>
+    <t>avoir un accident</t>
+  </si>
+  <si>
+    <t>verunsichern</t>
+  </si>
+  <si>
+    <t>déstabiliser</t>
+  </si>
+  <si>
+    <t>verunstalten</t>
+  </si>
+  <si>
+    <t>défigurer</t>
+  </si>
+  <si>
+    <t>déformer</t>
+  </si>
+  <si>
+    <t>verursachen</t>
+  </si>
+  <si>
+    <t>provoquer</t>
+  </si>
+  <si>
+    <t>causer</t>
+  </si>
+  <si>
+    <t>créer</t>
+  </si>
+  <si>
+    <t>verurteilen</t>
+  </si>
+  <si>
+    <t>condamner</t>
+  </si>
+  <si>
+    <t>juger</t>
+  </si>
+  <si>
+    <t>verwechseln</t>
+  </si>
+  <si>
+    <t>confondre</t>
+  </si>
+  <si>
+    <t>verweigern</t>
+  </si>
+  <si>
+    <t>refuser</t>
+  </si>
+  <si>
+    <t>verwelken</t>
+  </si>
+  <si>
+    <t>se flétrir</t>
+  </si>
+  <si>
+    <t>se faner</t>
+  </si>
+  <si>
+    <t>faner</t>
+  </si>
+  <si>
+    <t>verwenden</t>
+  </si>
+  <si>
+    <t>utiliser</t>
+  </si>
+  <si>
+    <t>verwirklichen</t>
+  </si>
+  <si>
+    <t>réaliser</t>
+  </si>
+  <si>
+    <t>verwirren</t>
+  </si>
+  <si>
+    <t>dérouter</t>
+  </si>
+  <si>
+    <t>désorienter</t>
+  </si>
+  <si>
+    <t>verwischen</t>
+  </si>
+  <si>
+    <t>estomper</t>
+  </si>
+  <si>
+    <t>brouiller</t>
+  </si>
+  <si>
+    <t>brouiller les pistes</t>
+  </si>
+  <si>
+    <t>verwöhnen</t>
+  </si>
+  <si>
+    <t>choyer</t>
+  </si>
+  <si>
+    <t>gâter</t>
+  </si>
+  <si>
+    <t>chouchouter</t>
+  </si>
+  <si>
+    <t>dorloter</t>
+  </si>
+  <si>
+    <t>verwunden</t>
+  </si>
+  <si>
+    <t>verzaubern</t>
+  </si>
+  <si>
+    <t>enchanter</t>
+  </si>
+  <si>
+    <t>charmer</t>
+  </si>
+  <si>
+    <t>envoûter</t>
+  </si>
+  <si>
+    <t>ensorceler</t>
+  </si>
+  <si>
+    <t>verzehren</t>
+  </si>
+  <si>
+    <t>verzeichnen</t>
+  </si>
+  <si>
+    <t>enregistrer</t>
+  </si>
+  <si>
+    <t>répertorier</t>
+  </si>
+  <si>
+    <t>verzeihen</t>
+  </si>
+  <si>
+    <t>pardonner</t>
+  </si>
+  <si>
+    <t>verzerren</t>
+  </si>
+  <si>
+    <t>distordre</t>
+  </si>
+  <si>
+    <t>biaiser</t>
+  </si>
+  <si>
+    <t>verzichten</t>
+  </si>
+  <si>
+    <t>verzieren</t>
+  </si>
+  <si>
+    <t>décorer</t>
+  </si>
+  <si>
+    <t>verzögern</t>
+  </si>
+  <si>
+    <t>retarder</t>
+  </si>
+  <si>
+    <t>temporiser</t>
+  </si>
+  <si>
+    <t>verzweifeln</t>
+  </si>
+  <si>
+    <t>désespérer</t>
+  </si>
+  <si>
+    <t>voraussagen</t>
+  </si>
+  <si>
+    <t>anticiper</t>
+  </si>
+  <si>
+    <t>prévoir</t>
+  </si>
+  <si>
+    <t>vorbeifahren</t>
+  </si>
+  <si>
+    <t>passer devant</t>
+  </si>
+  <si>
+    <t>passer à côté</t>
+  </si>
+  <si>
+    <t>vorbereiten</t>
+  </si>
+  <si>
+    <t>se préparer</t>
+  </si>
+  <si>
+    <t>préparer</t>
+  </si>
+  <si>
+    <t>vorbeugen</t>
+  </si>
+  <si>
+    <t>prévenir</t>
+  </si>
+  <si>
+    <t>faire de la prévention</t>
+  </si>
+  <si>
+    <t>vordrängeln</t>
+  </si>
+  <si>
+    <t>couper la file</t>
+  </si>
+  <si>
+    <t>prendre les devants</t>
+  </si>
+  <si>
+    <t>prendre la priorité</t>
+  </si>
+  <si>
+    <t>vorenthalten</t>
+  </si>
+  <si>
+    <t>retenir</t>
+  </si>
+  <si>
+    <t>vorfallen</t>
+  </si>
+  <si>
+    <t>se faire remarquer</t>
+  </si>
+  <si>
+    <t>se présenter</t>
+  </si>
+  <si>
+    <t>se manifester</t>
+  </si>
+  <si>
+    <t>se montrer à la hauteur</t>
+  </si>
+  <si>
+    <t>vorfinden</t>
+  </si>
+  <si>
+    <t>trouver</t>
+  </si>
+  <si>
+    <t>vorgeben</t>
+  </si>
+  <si>
+    <t>faire semblant</t>
+  </si>
+  <si>
+    <t>prétendre</t>
+  </si>
+  <si>
+    <t>vorhaben</t>
+  </si>
+  <si>
+    <t>avoir des projets</t>
+  </si>
+  <si>
+    <t>avoir l'intention de</t>
+  </si>
+  <si>
+    <t>vorhersehen</t>
+  </si>
+  <si>
+    <t>vorkommen</t>
+  </si>
+  <si>
+    <t>être présent</t>
+  </si>
+  <si>
+    <t>arriver</t>
+  </si>
+  <si>
+    <t>se produire</t>
+  </si>
+  <si>
+    <t>vorlesen</t>
+  </si>
+  <si>
+    <t>lire à haute voix</t>
+  </si>
+  <si>
+    <t>vormachen</t>
+  </si>
+  <si>
+    <t>montrer l'exemple</t>
+  </si>
+  <si>
+    <t>vornehmen</t>
+  </si>
+  <si>
+    <t>procéder</t>
+  </si>
+  <si>
+    <t>faire</t>
+  </si>
+  <si>
+    <t>faire des efforts</t>
+  </si>
+  <si>
+    <t>vorschlagen</t>
+  </si>
+  <si>
+    <t>proposer</t>
+  </si>
+  <si>
+    <t>vorschreiben</t>
+  </si>
+  <si>
+    <t>imposer</t>
+  </si>
+  <si>
+    <t>vorsorgen</t>
+  </si>
+  <si>
+    <t>prendre des précautions</t>
+  </si>
+  <si>
+    <t>prendre des dispositions</t>
+  </si>
+  <si>
+    <t>vorstellen</t>
+  </si>
+  <si>
+    <t>présenter</t>
+  </si>
+  <si>
+    <t>vortäuschen</t>
+  </si>
+  <si>
+    <t>feindre</t>
+  </si>
+  <si>
+    <t>simuler</t>
+  </si>
+  <si>
+    <t>vortragen</t>
+  </si>
+  <si>
+    <t>réciter</t>
+  </si>
+  <si>
+    <t>faire une présentation</t>
+  </si>
+  <si>
+    <t>faire un exposé</t>
+  </si>
+  <si>
+    <t>vorübergehen</t>
+  </si>
+  <si>
+    <t>vorweisen</t>
+  </si>
+  <si>
+    <t>montrer</t>
+  </si>
+  <si>
+    <t>vorwerfen</t>
+  </si>
+  <si>
+    <t>reprocher</t>
+  </si>
+  <si>
+    <t>accuser</t>
+  </si>
+  <si>
+    <t>vorzeigen</t>
+  </si>
+  <si>
+    <t>vorziehen</t>
+  </si>
+  <si>
+    <t>préférer</t>
+  </si>
+  <si>
+    <t>avancer</t>
+  </si>
+  <si>
+    <t>privilégier</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>grandir</t>
+  </si>
+  <si>
+    <t>croître</t>
+  </si>
+  <si>
+    <t>wackeln</t>
+  </si>
+  <si>
+    <t>se déhancher</t>
+  </si>
+  <si>
+    <t>se trémousser</t>
+  </si>
+  <si>
+    <t>se tortiller</t>
+  </si>
+  <si>
+    <t>se secouer</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>oser</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>choisir</t>
+  </si>
+  <si>
+    <t>wahrnehmen</t>
+  </si>
+  <si>
+    <t>percevoir</t>
+  </si>
+  <si>
+    <t>prendre conscience</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>se promener</t>
+  </si>
+  <si>
+    <t>se balader</t>
+  </si>
+  <si>
+    <t>marcher</t>
+  </si>
+  <si>
+    <t>se déplacer</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>avertir</t>
+  </si>
+  <si>
+    <t>mettre en garde</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>attendre</t>
+  </si>
+  <si>
+    <t>waschen</t>
+  </si>
+  <si>
+    <t>laver</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>changer</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>réveiller</t>
+  </si>
+  <si>
+    <t>éveiller</t>
+  </si>
+  <si>
+    <t>wegfahren</t>
+  </si>
+  <si>
+    <t>s'éloigner</t>
+  </si>
+  <si>
+    <t>s'en aller</t>
+  </si>
+  <si>
+    <t>wegfallen</t>
+  </si>
+  <si>
+    <t>tomber</t>
+  </si>
+  <si>
+    <t>se passe de</t>
+  </si>
+  <si>
+    <t>weggehen</t>
+  </si>
+  <si>
+    <t>s'enfuir</t>
+  </si>
+  <si>
+    <t>weglassen</t>
+  </si>
+  <si>
+    <t>omettre</t>
+  </si>
+  <si>
+    <t>laisser de côté</t>
+  </si>
+  <si>
+    <t>wegnehmen</t>
+  </si>
+  <si>
+    <t>enlever</t>
+  </si>
+  <si>
+    <t>prendre</t>
+  </si>
+  <si>
+    <t>retirer</t>
+  </si>
+  <si>
+    <t>wegrennen</t>
+  </si>
+  <si>
+    <t>courir</t>
+  </si>
+  <si>
+    <t>se sauver</t>
+  </si>
+  <si>
+    <t>fuir</t>
+  </si>
+  <si>
+    <t>wegschicken</t>
+  </si>
+  <si>
+    <t>renvoyer</t>
+  </si>
+  <si>
+    <t>éloigner</t>
+  </si>
+  <si>
+    <t>wegschmeißen</t>
+  </si>
+  <si>
+    <t>jeter</t>
+  </si>
+  <si>
+    <t>wehren</t>
+  </si>
+  <si>
+    <t>se défendre</t>
+  </si>
+  <si>
+    <t>se battre</t>
+  </si>
+  <si>
+    <t>résister</t>
+  </si>
+  <si>
+    <t>lutter</t>
+  </si>
+  <si>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>weinen</t>
+  </si>
+  <si>
+    <t>pleurer</t>
+  </si>
+  <si>
+    <t>welken</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>onduler</t>
+  </si>
+  <si>
+    <t>faire des vagues</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>tourner</t>
+  </si>
+  <si>
+    <t>faire demi-tour</t>
+  </si>
+  <si>
+    <t>virer</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>devenir</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>lancer</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>parier</t>
+  </si>
+  <si>
+    <t>miser</t>
+  </si>
+  <si>
+    <t>wickeln</t>
+  </si>
+  <si>
+    <t>changer de couches</t>
+  </si>
+  <si>
+    <t>langer</t>
+  </si>
+  <si>
+    <t>widerlegen</t>
+  </si>
+  <si>
+    <t>réfuter</t>
+  </si>
+  <si>
+    <t>widersetzen</t>
+  </si>
+  <si>
+    <t>s'opposer</t>
+  </si>
+  <si>
+    <t>widerspiegeln</t>
+  </si>
+  <si>
+    <t>refléter</t>
+  </si>
+  <si>
+    <t>widerstehen</t>
+  </si>
+  <si>
+    <t>widmen</t>
+  </si>
+  <si>
+    <t>dédier</t>
+  </si>
+  <si>
+    <t>consacrer</t>
+  </si>
+  <si>
+    <t>wiedergeben</t>
+  </si>
+  <si>
+    <t>restituer</t>
+  </si>
+  <si>
+    <t>rendre</t>
+  </si>
+  <si>
+    <t>rendre compte</t>
+  </si>
+  <si>
+    <t>wiederholen</t>
+  </si>
+  <si>
+    <t>répéter</t>
+  </si>
+  <si>
+    <t>wiederkehren</t>
+  </si>
+  <si>
+    <t>revenir</t>
+  </si>
+  <si>
+    <t>wiederkommen</t>
+  </si>
+  <si>
+    <t>wiedersehen</t>
+  </si>
+  <si>
+    <t>se revoir</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>peser</t>
+  </si>
+  <si>
+    <t>wiehern</t>
+  </si>
+  <si>
+    <t>hennir</t>
+  </si>
+  <si>
+    <t>wimmeln</t>
+  </si>
+  <si>
+    <t>pulluler</t>
+  </si>
+  <si>
+    <t>fourmiller</t>
+  </si>
+  <si>
+    <t>grouiller</t>
+  </si>
+  <si>
+    <t>wimmern</t>
+  </si>
+  <si>
+    <t>gémir</t>
+  </si>
+  <si>
+    <t>geindre</t>
+  </si>
+  <si>
+    <t>pleurnicher</t>
+  </si>
+  <si>
+    <t>se plaindre</t>
+  </si>
+  <si>
+    <t>winden</t>
+  </si>
+  <si>
+    <t>winken</t>
+  </si>
+  <si>
+    <t>faire un signe</t>
+  </si>
+  <si>
+    <t>saluer</t>
+  </si>
+  <si>
+    <t>faire un signe de la main</t>
+  </si>
+  <si>
+    <t>winseln</t>
+  </si>
+  <si>
+    <t>wippen</t>
+  </si>
+  <si>
+    <t>se balancer</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>agir</t>
+  </si>
+  <si>
+    <t>faire des effets</t>
+  </si>
+  <si>
+    <t>wischen</t>
+  </si>
+  <si>
+    <t>essuyer</t>
+  </si>
+  <si>
+    <t>balayer</t>
+  </si>
+  <si>
+    <t>passer la serpillère</t>
+  </si>
+  <si>
+    <t>wispern</t>
+  </si>
+  <si>
+    <t>murmurer</t>
+  </si>
+  <si>
+    <t>chuchoter</t>
   </si>
 </sst>
 </file>
@@ -505,154 +1264,1188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4167B49E-280D-4F97-A16F-747FF3B53422}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
     <col min="2" max="2" width="24.26953125" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
     <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>230</v>
+      </c>
+      <c r="B79" t="s">
+        <v>231</v>
+      </c>
+      <c r="C79" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>233</v>
+      </c>
+      <c r="B80" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>238</v>
+      </c>
+      <c r="B82" t="s">
+        <v>239</v>
+      </c>
+      <c r="C82" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>242</v>
+      </c>
+      <c r="B84" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>243</v>
+      </c>
+      <c r="B85" t="s">
+        <v>244</v>
+      </c>
+      <c r="C85" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>246</v>
+      </c>
+      <c r="B86" t="s">
+        <v>247</v>
+      </c>
+      <c r="C86" t="s">
+        <v>248</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>250</v>
+      </c>
+      <c r="B87" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>252</v>
+      </c>
+      <c r="B88" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>255</v>
+      </c>
+      <c r="B90" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>257</v>
+      </c>
+      <c r="B91" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>259</v>
+      </c>
+      <c r="B92" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>261</v>
+      </c>
+      <c r="B93" t="s">
+        <v>262</v>
+      </c>
+      <c r="C93" t="s">
+        <v>263</v>
+      </c>
+      <c r="D93" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>265</v>
+      </c>
+      <c r="B94" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" t="s">
+        <v>268</v>
+      </c>
+      <c r="E94" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>270</v>
+      </c>
+      <c r="B95" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>271</v>
+      </c>
+      <c r="B96" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" t="s">
+        <v>273</v>
+      </c>
+      <c r="D96" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>275</v>
+      </c>
+      <c r="B97" t="s">
+        <v>266</v>
+      </c>
+      <c r="C97" t="s">
+        <v>267</v>
+      </c>
+      <c r="D97" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>276</v>
+      </c>
+      <c r="B98" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" t="s">
+        <v>158</v>
+      </c>
+      <c r="D98" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>278</v>
+      </c>
+      <c r="B99" t="s">
+        <v>279</v>
+      </c>
+      <c r="C99" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>281</v>
+      </c>
+      <c r="B100" t="s">
+        <v>282</v>
+      </c>
+      <c r="C100" t="s">
+        <v>283</v>
+      </c>
+      <c r="D100" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>285</v>
+      </c>
+      <c r="B101" t="s">
+        <v>286</v>
+      </c>
+      <c r="C101" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
